--- a/After Format/Joystick mappings.xlsx
+++ b/After Format/Joystick mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3igen3ggy\Desktop\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B435C91E-1820-49B9-BE67-26549E2C791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E12A4C-92D1-4F6A-9EF1-B2B0094E1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Anetnna elevation</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Satellite</t>
   </si>
   <si>
+    <t>Enemy</t>
+  </si>
+  <si>
     <t>Radar/Kneeboard</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
   </si>
   <si>
     <t>Pickle</t>
-  </si>
-  <si>
-    <t>Flare</t>
   </si>
   <si>
     <t>Msl Step</t>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>My weap</t>
+  </si>
+  <si>
+    <t>Slap Switch</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1666,7 @@
   <dimension ref="A2:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,17 +1678,17 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>35</v>
@@ -1737,17 +1743,17 @@
         <v>6</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1757,7 +1763,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="P13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1781,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.25">
@@ -1794,11 +1800,15 @@
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>39</v>
       </c>
@@ -1822,7 +1832,7 @@
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1"/>
       <c r="M19" s="14" t="s">
@@ -1840,7 +1850,7 @@
     <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1"/>
       <c r="M20" s="11"/>
@@ -1878,7 +1888,7 @@
     <row r="23" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
       <c r="I23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1"/>
       <c r="M23" s="8" t="s">
@@ -1900,7 +1910,7 @@
     <row r="24" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1"/>
       <c r="M24" s="14" t="s">
@@ -1932,11 +1942,11 @@
     </row>
     <row r="26" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
@@ -1945,11 +1955,11 @@
     </row>
     <row r="27" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
@@ -1965,14 +1975,14 @@
     <row r="30" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -1988,17 +1998,17 @@
     </row>
     <row r="38" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I40" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/After Format/Joystick mappings.xlsx
+++ b/After Format/Joystick mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3igen3ggy\Desktop\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E12A4C-92D1-4F6A-9EF1-B2B0094E1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8EB84-BEEB-4528-BB24-9E33AC9D3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Anetnna elevation</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>3D Cockpit</t>
-  </si>
-  <si>
-    <t>Radar pointer</t>
-  </si>
-  <si>
-    <t>and PINKY (SHIFT)</t>
   </si>
   <si>
     <t>Satellite</t>
@@ -223,15 +217,31 @@
   <si>
     <t>Slap Switch</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RDR POINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and PINKY (SHIFT)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -349,23 +359,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,15 +443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895351</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -411,8 +466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266825" y="361950"/>
-          <a:ext cx="619125" cy="685799"/>
+          <a:off x="361951" y="409575"/>
+          <a:ext cx="533400" cy="685799"/>
         </a:xfrm>
         <a:prstGeom prst="diagStripe">
           <a:avLst/>
@@ -451,13 +506,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -511,13 +566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -571,13 +626,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -631,13 +686,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -695,13 +750,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -759,13 +814,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -821,16 +876,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>41578</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -845,8 +900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076576" y="438151"/>
-          <a:ext cx="622602" cy="552450"/>
+          <a:off x="3419477" y="428626"/>
+          <a:ext cx="761998" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="sun">
           <a:avLst/>
@@ -881,13 +936,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -941,13 +996,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1001,13 +1056,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -1065,13 +1120,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1125,16 +1180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1149,8 +1204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8724900" y="1047750"/>
-          <a:ext cx="209550" cy="447675"/>
+          <a:off x="8105775" y="1019175"/>
+          <a:ext cx="209550" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1185,13 +1240,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1245,13 +1300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -1305,13 +1360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1663,353 +1718,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C36FEA-C229-4E5E-9DFF-89862ABEE857}">
-  <dimension ref="A2:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F35" sqref="F35:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q2" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="7"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="J19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="2"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="2"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="2"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="J23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="J24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="P13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="M19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-      <c r="I20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H23" s="1"/>
-      <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="M23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="M24" s="14" t="s">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H27" s="2" t="s">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2" t="s">
+      <c r="H38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H31" s="1"/>
-      <c r="I31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="P35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I38" s="1" t="s">
+      <c r="H39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I40" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/After Format/Joystick mappings.xlsx
+++ b/After Format/Joystick mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3igen3ggy\Desktop\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8EB84-BEEB-4528-BB24-9E33AC9D3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035BBBB9-2B8D-4527-B9E5-A679F4094B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Anetnna elevation</t>
   </si>
@@ -180,15 +180,6 @@
   </si>
   <si>
     <t>Gear</t>
-  </si>
-  <si>
-    <t>ICP AA</t>
-  </si>
-  <si>
-    <t>ICP AG</t>
-  </si>
-  <si>
-    <t>ICP NAV</t>
   </si>
   <si>
     <r>
@@ -225,6 +216,72 @@
   </si>
   <si>
     <t xml:space="preserve"> and PINKY (SHIFT)</t>
+  </si>
+  <si>
+    <t>ICP Buttons</t>
+  </si>
+  <si>
+    <t>F1-F7</t>
+  </si>
+  <si>
+    <t>DRIFT C/O</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>DRIFT C/O WARN RESET</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>FLCS RESET</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>Steerpoints</t>
+  </si>
+  <si>
+    <t>&lt;, &gt;</t>
+  </si>
+  <si>
+    <t>HSI HDG Knob</t>
+  </si>
+  <si>
+    <t>Ins, Del</t>
+  </si>
+  <si>
+    <t>Home, End</t>
+  </si>
+  <si>
+    <t>HSI CRS Knob</t>
+  </si>
+  <si>
+    <t>Pressure Knob</t>
+  </si>
+  <si>
+    <t>PgUp, PgDn</t>
+  </si>
+  <si>
+    <t>INSTR MODE Cycle</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>CMDS PRGM Knob</t>
+  </si>
+  <si>
+    <t>[ ,]</t>
+  </si>
+  <si>
+    <t>CMDS MODE Knob</t>
+  </si>
+  <si>
+    <t>;, '</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1778,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:H41"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1792,7 @@
     <col min="13" max="13" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1775,6 +1832,12 @@
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1795,6 +1858,12 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1813,6 +1882,12 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
+      </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1831,6 +1906,12 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1844,7 +1925,7 @@
       <c r="H6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1853,6 +1934,12 @@
         <v>33</v>
       </c>
       <c r="P6" s="1"/>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -1885,6 +1972,12 @@
         <v>34</v>
       </c>
       <c r="P7" s="1"/>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1895,7 +1988,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1907,6 +2000,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" t="s">
+        <v>68</v>
+      </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1927,6 +2026,12 @@
         <v>35</v>
       </c>
       <c r="P9" s="1"/>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1949,6 +2054,12 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" t="s">
+        <v>73</v>
+      </c>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1969,6 +2080,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
+      <c r="Q11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1989,6 +2106,12 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s">
+        <v>77</v>
+      </c>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2021,7 +2144,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -2084,11 +2207,11 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2106,7 +2229,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -2237,13 +2360,13 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T23" s="1"/>
     </row>
@@ -2259,22 +2382,16 @@
       </c>
       <c r="H24" s="2"/>
       <c r="J24" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>42</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="3"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2484,7 +2601,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>

--- a/After Format/Joystick mappings.xlsx
+++ b/After Format/Joystick mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3igen3ggy\Desktop\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035BBBB9-2B8D-4527-B9E5-A679F4094B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DCB724-A909-42C1-BA90-E928D0D015E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Anetnna elevation</t>
   </si>
@@ -282,6 +280,21 @@
   </si>
   <si>
     <t>;, '</t>
+  </si>
+  <si>
+    <t>HUD Color</t>
+  </si>
+  <si>
+    <t>HUD Scales</t>
+  </si>
+  <si>
+    <t>HUD FPM</t>
+  </si>
+  <si>
+    <t>Alt. Gear</t>
+  </si>
+  <si>
+    <t>Pilot Model</t>
   </si>
 </sst>
 </file>
@@ -416,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -445,9 +458,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -461,12 +471,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1778,7 +1782,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1959,7 @@
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2253,7 +2257,7 @@
       <c r="O18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="T18" s="1"/>
@@ -2269,17 +2273,21 @@
         <v>13</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="2"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2293,12 +2301,12 @@
         <v>14</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="2"/>
       <c r="T20" s="1"/>
     </row>
@@ -2311,12 +2319,12 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="2"/>
       <c r="T21" s="1"/>
     </row>
@@ -2329,13 +2337,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2359,13 +2367,13 @@
         <v>44</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="10" t="s">
+      <c r="N23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="T23" s="1"/>
@@ -2381,16 +2389,18 @@
         <v>15</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="T24" s="1"/>
     </row>
@@ -2403,12 +2413,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="1"/>
       <c r="T25" s="1"/>
     </row>
@@ -2425,12 +2435,12 @@
       <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="1"/>
       <c r="T26" s="1"/>
     </row>
@@ -2562,7 +2572,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>

--- a/After Format/Joystick mappings.xlsx
+++ b/After Format/Joystick mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3igen3ggy\Desktop\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DCB724-A909-42C1-BA90-E928D0D015E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151AA08-EFA8-49A6-BD6A-D39D695FCB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09266651-1A48-4D99-85F2-9CD934D8CEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Anetnna elevation</t>
   </si>
@@ -296,12 +296,15 @@
   <si>
     <t>Pilot Model</t>
   </si>
+  <si>
+    <t>Master Arm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +357,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -481,6 +492,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1782,7 +1796,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2016,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" t="s">
         <v>69</v>
@@ -2395,7 +2411,9 @@
       <c r="K24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="10"/>
       <c r="O24" s="11" t="s">
